--- a/sinkhole_data/구별/연제구.xlsx
+++ b/sinkhole_data/구별/연제구.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9170F2BB-30A0-4DDB-A118-AC0D987FA3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E1CAA5-D589-4C74-A0FD-F48BE897BC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,25 +55,7 @@
     <t>상수관 누수 구간 정비 후 복구 완료</t>
   </si>
   <si>
-    <t>부산광역시 연제구 (지역 불분명)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>기타</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>배수관 때문에 싱크홀 발생으로 추정</t>
-  </si>
-  <si>
-    <t>부산광역시 연제구 연산교차로 방면 연산터널 입구 도로</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-  </si>
-  <si>
-    <t>가스 배관 공사 후 모래가 쓸려 나가면서 침하가 일어난 것으로 추정</t>
   </si>
   <si>
     <t>부산광역시 연제구 연산동 월드컵대로140(연산동1516-16,연산역 5번출구 앞)</t>
@@ -113,15 +95,15 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -134,7 +116,7 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lon</t>
@@ -145,13 +127,522 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연제구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불분명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배수관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때문에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>싱크홀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발생으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연제구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연산교차로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연산터널</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도로</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모래가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓸려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나가면서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>침하가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일어난</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추정</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,32 +664,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -212,18 +678,24 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Noto Sans KR"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Noto Sans KR"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -253,7 +725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -277,24 +749,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -318,29 +773,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,9 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:J15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -664,32 +1117,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -714,13 +1167,13 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>129.07278565009301</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>35.181930340544397</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
@@ -744,13 +1197,13 @@
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>129.07269144275801</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>35.189456606593403</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
@@ -774,13 +1227,13 @@
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>129.094830406439</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>35.173981225566202</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
@@ -804,13 +1257,13 @@
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>129.07742849752401</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>35.180201647255601</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
@@ -834,13 +1287,13 @@
       <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>129.07142800546299</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>35.189415151149802</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
@@ -864,70 +1317,70 @@
       <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>129.08544596781701</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>35.176531285622403</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>43516</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7">
         <v>2.5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>2.5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>3</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6">
         <v>43702</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7">
         <v>0.8</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>0.8</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <v>1.5</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
-        <v>38</v>
+      <c r="H9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -935,10 +1388,10 @@
         <v>44109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -950,25 +1403,25 @@
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="10">
+        <v>13</v>
+      </c>
+      <c r="H10" s="9">
         <v>129.08095996829601</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>35.186548210403501</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>44263</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -980,22 +1433,22 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="10">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9">
         <v>129.08510220051599</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>35.194434118755098</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>44322</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -1010,25 +1463,25 @@
         <v>1.3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="10">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9">
         <v>129.083125059754</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>35.1660096920101</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>44361</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -1040,25 +1493,25 @@
         <v>2.4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="10">
+        <v>18</v>
+      </c>
+      <c r="H13" s="9">
         <v>129.063479542658</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>35.192416577094001</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>44891</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -1070,25 +1523,25 @@
         <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="10">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9">
         <v>129.09051942353301</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>35.174497300042098</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>45419</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>0.7</v>
@@ -1100,15 +1553,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="10">
+        <v>23</v>
+      </c>
+      <c r="H15" s="9">
         <v>129.09422460966101</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>35.173469036142301</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
